--- a/asepuc25/UBschoolMay25-dataCribadoTransformersNewCat-SHORT.xlsx
+++ b/asepuc25/UBschoolMay25-dataCribadoTransformersNewCat-SHORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/jamarin_upv_edu_es/Documents/syncDoc/DAvpt/DA21-24/OficinaApDigital/CursoIAProfes/genAI4ResearchTeaching-main/asepuc25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{60CF8078-CD4F-45AE-B037-A3326FF3F03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94729A53-F621-42A3-B8B7-7DBBA779A0B2}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{60CF8078-CD4F-45AE-B037-A3326FF3F03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DFBF20-21D4-486C-BB8B-F064E46F7364}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{8D217732-E8E9-4770-AB4A-43992F849767}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="401">
   <si>
     <t>Component</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>cat1</t>
   </si>
   <si>
     <t>cat2</t>
@@ -1255,6 +1252,12 @@
   </si>
   <si>
     <t>id0515#3</t>
+  </si>
+  <si>
+    <t>GOAL</t>
+  </si>
+  <si>
+    <t>Effects of open-ended questions in Student Evaluation of Teaching (SET) on faculty mental health and psychological wellbeing. Open-ended questions in teaching evaluations are unstructured, free-response queries that allow students to provide detailed qualitative feedback about instructor performance, course quality, and educational experiences without predefined response options. These open-ended components in SET systems can significantly impact professors' psychological state, stress levels, anxiety, emotional wellbeing, and overall mental health outcomes. Faculty members may experience increased vulnerability, emotional distress, and psychological burden when exposed to unconstrained student feedback through free-response questions in course evaluations, student ratings of instruction, and teaching effectiveness assessments</t>
   </si>
 </sst>
 </file>
@@ -1648,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEAC486-9DB2-4D19-B71C-5B1B10B0EDB8}">
-  <dimension ref="A1:C1240"/>
+  <dimension ref="A1:C1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B198"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1674,18 +1677,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>399</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1696,2151 +1697,2159 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>367</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>373</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>328</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>375</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B70" t="s">
         <v>161</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>245</v>
+        <v>375</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>247</v>
+        <v>376</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>378</v>
+        <v>247</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>379</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>395</v>
+        <v>252</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>396</v>
+        <v>256</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="B98" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>397</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>259</v>
+        <v>396</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>382</v>
+        <v>258</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>384</v>
+        <v>260</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B110" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B111" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B112" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>268</v>
+        <v>397</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B118" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="B120" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B122" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>385</v>
+        <v>273</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="B124" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>385</v>
       </c>
       <c r="B126" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B127" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>387</v>
+        <v>276</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>278</v>
+        <v>386</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="B132" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>279</v>
+        <v>398</v>
       </c>
       <c r="B134" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="B137" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>281</v>
+        <v>388</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B140" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B141" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B143" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>347</v>
       </c>
       <c r="B144" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B145" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B146" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B147" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B148" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="B149" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="B150" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>289</v>
+        <v>389</v>
       </c>
       <c r="B151" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B152" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B153" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B155" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B157" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>391</v>
+        <v>294</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>296</v>
+        <v>390</v>
       </c>
       <c r="B159" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="B160" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="B161" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="B162" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="B163" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="B164" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B165" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="B166" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="B167" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B169" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B170" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B172" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B173" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B174" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B175" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B176" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="B177" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="B178" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B179" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B180" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B181" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B182" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B183" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="B185" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B186" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B187" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="B188" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B189" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>394</v>
+        <v>317</v>
       </c>
       <c r="B190" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="B191" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B192" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="B193" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B194" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B195" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B196" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B197" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="B198" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C199" s="2"/>
+      <c r="A199" t="s">
+        <v>320</v>
+      </c>
+      <c r="B199" t="s">
+        <v>187</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C200" s="2"/>
@@ -5034,7 +5043,7 @@
       <c r="C596" s="2"/>
     </row>
     <row r="597" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C597" s="3"/>
+      <c r="C597" s="2"/>
     </row>
     <row r="598" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C598" s="3"/>
@@ -6132,7 +6141,7 @@
       <c r="C962" s="3"/>
     </row>
     <row r="963" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C963" s="2"/>
+      <c r="C963" s="3"/>
     </row>
     <row r="964" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C964" s="2"/>
@@ -6964,6 +6973,9 @@
     </row>
     <row r="1240" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1240" s="2"/>
+    </row>
+    <row r="1241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1241" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/asepuc25/UBschoolMay25-dataCribadoTransformersNewCat-SHORT.xlsx
+++ b/asepuc25/UBschoolMay25-dataCribadoTransformersNewCat-SHORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/jamarin_upv_edu_es/Documents/syncDoc/DAvpt/DA21-24/OficinaApDigital/CursoIAProfes/genAI4ResearchTeaching-main/asepuc25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{60CF8078-CD4F-45AE-B037-A3326FF3F03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DFBF20-21D4-486C-BB8B-F064E46F7364}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{60CF8078-CD4F-45AE-B037-A3326FF3F03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B56C027D-43AA-4245-849C-8956B1E5FA0E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{8D217732-E8E9-4770-AB4A-43992F849767}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="402">
   <si>
     <t>Component</t>
   </si>
@@ -1258,6 +1258,9 @@
   </si>
   <si>
     <t>Effects of open-ended questions in Student Evaluation of Teaching (SET) on faculty mental health and psychological wellbeing. Open-ended questions in teaching evaluations are unstructured, free-response queries that allow students to provide detailed qualitative feedback about instructor performance, course quality, and educational experiences without predefined response options. These open-ended components in SET systems can significantly impact professors' psychological state, stress levels, anxiety, emotional wellbeing, and overall mental health outcomes. Faculty members may experience increased vulnerability, emotional distress, and psychological burden when exposed to unconstrained student feedback through free-response questions in course evaluations, student ratings of instruction, and teaching effectiveness assessments</t>
+  </si>
+  <si>
+    <t>cat1</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1657,7 @@
   <dimension ref="A1:C1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1682,7 +1685,9 @@
       <c r="B2" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">

--- a/asepuc25/UBschoolMay25-dataCribadoTransformersNewCat-SHORT.xlsx
+++ b/asepuc25/UBschoolMay25-dataCribadoTransformersNewCat-SHORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/jamarin_upv_edu_es/Documents/syncDoc/DAvpt/DA21-24/OficinaApDigital/CursoIAProfes/genAI4ResearchTeaching-main/asepuc25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{60CF8078-CD4F-45AE-B037-A3326FF3F03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B56C027D-43AA-4245-849C-8956B1E5FA0E}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{60CF8078-CD4F-45AE-B037-A3326FF3F03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E25D65E2-18C7-477B-81A8-BEF2AEF05E7A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{8D217732-E8E9-4770-AB4A-43992F849767}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="410">
   <si>
     <t>Component</t>
   </si>
@@ -48,19 +48,6 @@
   </si>
   <si>
     <t>art</t>
-  </si>
-  <si>
-    <t>Student Evaluation of Teaching (SET) refers to the systematic process of collecting feedback from students about their educational experiences, instructor effectiveness, and course quality. These evaluations typically occur at the end of a course or academic term and involve students rating various aspects of teaching performance and course design through questionnaires or surveys.Synonyms and Related Terms:
-* Course evaluations
-* Teaching evaluations
-* Student ratings of instruction (SRI)
-* Student feedback questionnaires
-* Student assessment of teaching (SAT)
-* Student perception of teaching (SPOT)
-* Student evaluations of educational quality (SEEQ)
-* Student ratings of teaching effectiveness (SRTE)
-* Student course experience questionnaires (SCEQ)
-* Teaching effectiveness measures</t>
   </si>
   <si>
     <t>A systematic literature review (SLR) is a methodical, comprehensive, transparent, and reproducible method of identifying, evaluating, and synthesizing all available research evidence relevant to a particular research question or topic.
@@ -87,9 +74,6 @@
     <t>OpenEnded</t>
   </si>
   <si>
-    <t>Open-ended questions are a form of interrogative statement that cannot be answered with a simple "yes" or "no" response or with a specific piece of information, and instead requires the respondent to elaborate on their thoughts. These questions are designed to encourage a full, meaningful answer using the respondent's own knowledge, feelings, and/or opinions. Do not constrain respondents to predefined options. Synonyms and Related Terms: Unstructured questions, Free-response questions, Qualitative questions</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Classification trees for multivariate ordinal response: an application to Student Evaluation Teaching. Data from multiple items on an ordinal scale are commonly collected when qualitative variables, such as feelings, attitudes and many other behavioral and health-related variables are observed. In this paper we introduce a method to derive a distance-based tree for multivariate ordinal response that allows, when subject-specific characteristics are available, to derive common profiles for respondents giving the same/similar multivariate ratings. Special attention will be paid to the performance comparison in terms of AUC, for three different distances used as splitting criteria. Simulated data an a dataset from a Student Evaluation of Teaching survey will be used as illustrative examples. The latter will be used to show the performance of the procedure in profiling students by identifying which features of their experience are most closely related to their expressed satisfaction.</t>
   </si>
   <si>
@@ -1261,13 +1245,88 @@
   </si>
   <si>
     <t>cat1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Student evaluation of teaching open-ended comments qualitative feedback psychological impact faculty mental health wellbeing. Anonymous student feedback negative comments abusive commentary emotional distress stress anxiety depression academic staff. Open-ended questions free-response written comments student evaluations teaching </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCC6E0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> formative feedback instructor psychological wellbeing professional confidence. Narrative feedback qualitative </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDCC6E0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> student commentary teaching effectiveness emotional impact academics higher education faculty stress mental health outcomes</t>
+    </r>
+  </si>
+  <si>
+    <t>GOAL2</t>
+  </si>
+  <si>
+    <t>Studies that focus on examining the free-text responses that students provide in evaluations, beyond numerical ratings. To analyze the emotional and psychological impact on faculty. How student comments, especially negative, abusive or non-constructive ones, affect the mental health, wellbeing and professional confidence of academics. Multiple studies document stress, anxiety, emotional distress and effects on professional self-esteem. Tension between formative utility and potential harm. The articles explore the paradox that while open-ended comments can provide valuable feedback to improve teaching, they can also generate significant negative consequences for educators, especially when they are anonymous and unfiltered</t>
+  </si>
+  <si>
+    <t>GOAL1</t>
+  </si>
+  <si>
+    <t>estudios que se enfocan en examinar las respuestas de texto libre que los estudiantes proporcionan en las evaluaciones, más allá de las calificaciones numéricas. PAra analizar el Impacto emocional y psicológico en los docentes. Cómo los comentarios de los estudiantes, especialmente los negativos, abusivos o no constructivos, afectan la salud mental, bienestar y confianza profesional de los académicos. Múltiples estudios documentan estrés, ansiedad, distress emocional y efectos en la autoestima profesional. Tensión entre utilidad formativa y potencial daño. Los artículos exploran la paradoja de que mientras los comentarios abiertos pueden proporcionar feedback valioso para mejorar la enseñanza, también pueden generar consecuencias negativas significativas para los educadores, especialmente cuando son anónimos y sin filtros</t>
+  </si>
+  <si>
+    <t>GOAL1sp</t>
+  </si>
+  <si>
+    <t>MentalHealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty mental health and psychological wellbeing.  psychological state, stress levels, anxiety, emotional wellbeing, and overall mental health outcomes. Faculty members may experience increased vulnerability, emotional distress, and psychological burden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open-ended questions are a form of interrogative statement that cannot be answered with a simple "yes" or "no" response or with a specific piece of information, and instead requires the respondent to elaborate on their thoughts. These questions are designed to encourage a full, meaningful answer using the respondent's own knowledge, feelings, and/or opinions. Do not constrain respondents to predefined options. Synonyms and Related Terms: Unstructured questions, Free-response questions, Qualitative questions.  unconstrained student feedback through free-response questions </t>
+  </si>
+  <si>
+    <t>Student Evaluation of Teaching (SET) refers to the systematic process of collecting feedback from students about their educational experiences, instructor effectiveness, and course quality. These evaluations typically occur at the end of a course or academic term and involve students rating various aspects of teaching performance and course design through questionnaires or surveys.Synonyms and Related Terms:
+* Course evaluations
+* Teaching evaluations
+* Student ratings of instruction 
+* Student feedback questionnaires
+* Student assessment of teaching
+* Student evaluations of educational quality
+* Student ratings of teaching effectiveness
+* Student course experience questionnaires 
+* Teaching effectiveness measures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1285,6 +1344,12 @@
     <font>
       <u/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDCC6E0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1309,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1319,6 +1384,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEAC486-9DB2-4D19-B71C-5B1B10B0EDB8}">
-  <dimension ref="A1:C1241"/>
+  <dimension ref="A1:C1245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1680,98 +1749,98 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>403</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>405</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>401</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" t="s">
-        <v>191</v>
+    <row r="7" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>360</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+      <c r="A9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1779,10 +1848,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1790,7 +1859,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
@@ -1801,10 +1870,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1812,10 +1881,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1823,10 +1892,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1834,10 +1903,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1845,10 +1914,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -1856,10 +1925,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -1867,10 +1936,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1878,10 +1947,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -1889,10 +1958,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -1900,10 +1969,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1911,10 +1980,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -1922,10 +1991,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>360</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -1933,10 +2002,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -1944,10 +2013,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -1955,10 +2024,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>363</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -1966,10 +2035,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -1977,10 +2046,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>365</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -1988,10 +2057,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -1999,10 +2068,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>361</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -2010,10 +2079,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -2021,10 +2090,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -2032,10 +2101,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -2043,10 +2112,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -2054,10 +2123,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>225</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -2065,10 +2134,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>226</v>
+        <v>365</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -2076,10 +2145,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>221</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -2087,10 +2156,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>368</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -2098,10 +2167,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -2109,10 +2178,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -2120,10 +2189,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
@@ -2131,10 +2200,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
@@ -2142,10 +2211,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
@@ -2153,10 +2222,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
@@ -2164,10 +2233,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
@@ -2175,10 +2244,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
@@ -2186,10 +2255,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -2197,10 +2266,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>371</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>4</v>
@@ -2208,10 +2277,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
@@ -2219,10 +2288,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
@@ -2230,10 +2299,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
@@ -2241,10 +2310,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
@@ -2252,10 +2321,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -2263,10 +2332,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
@@ -2274,10 +2343,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -2285,10 +2354,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -2296,10 +2365,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -2307,10 +2376,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -2318,10 +2387,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
@@ -2329,10 +2398,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>4</v>
@@ -2340,10 +2409,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>4</v>
@@ -2351,10 +2420,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
@@ -2362,10 +2431,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -2373,10 +2442,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
@@ -2384,10 +2453,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>4</v>
@@ -2395,10 +2464,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>4</v>
@@ -2406,10 +2475,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>4</v>
@@ -2417,10 +2486,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>4</v>
@@ -2428,10 +2497,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
@@ -2439,10 +2508,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
@@ -2450,10 +2519,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>4</v>
@@ -2461,10 +2530,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>4</v>
@@ -2472,10 +2541,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -2483,10 +2552,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>241</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>4</v>
@@ -2494,10 +2563,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>4</v>
@@ -2505,10 +2574,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>4</v>
@@ -2516,10 +2585,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -2527,10 +2596,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>4</v>
@@ -2538,10 +2607,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>4</v>
@@ -2549,10 +2618,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -2560,10 +2629,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
@@ -2571,10 +2640,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
@@ -2582,10 +2651,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>379</v>
+        <v>244</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>4</v>
@@ -2593,10 +2662,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
@@ -2604,10 +2673,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>4</v>
@@ -2615,10 +2684,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
@@ -2626,10 +2695,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -2637,10 +2706,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -2648,10 +2717,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>4</v>
@@ -2659,10 +2728,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
@@ -2670,10 +2739,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>4</v>
@@ -2681,10 +2750,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
@@ -2692,10 +2761,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>4</v>
@@ -2703,10 +2772,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
@@ -2714,10 +2783,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>4</v>
@@ -2725,10 +2794,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>395</v>
+        <v>251</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>4</v>
@@ -2736,10 +2805,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>4</v>
@@ -2747,10 +2816,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>4</v>
@@ -2758,10 +2827,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>396</v>
+        <v>254</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>4</v>
@@ -2769,10 +2838,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>258</v>
+        <v>393</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>4</v>
@@ -2780,10 +2849,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
@@ -2791,10 +2860,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>382</v>
+        <v>255</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
@@ -2802,10 +2871,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>259</v>
+        <v>394</v>
       </c>
       <c r="B104" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
@@ -2813,10 +2882,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
@@ -2824,10 +2893,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
@@ -2835,10 +2904,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
@@ -2846,10 +2915,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
@@ -2857,10 +2926,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
@@ -2868,10 +2937,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>263</v>
+        <v>381</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
@@ -2879,10 +2948,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B111" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
@@ -2890,10 +2959,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>4</v>
@@ -2901,10 +2970,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>4</v>
@@ -2912,10 +2981,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>340</v>
+        <v>261</v>
       </c>
       <c r="B114" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
@@ -2923,10 +2992,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>397</v>
+        <v>262</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>4</v>
@@ -2934,10 +3003,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>4</v>
@@ -2945,10 +3014,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>4</v>
@@ -2956,10 +3025,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
@@ -2967,10 +3036,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>270</v>
+        <v>395</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>4</v>
@@ -2978,10 +3047,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
@@ -2989,10 +3058,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="B121" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>4</v>
@@ -3000,10 +3069,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>4</v>
@@ -3011,10 +3080,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B123" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>4</v>
@@ -3022,10 +3091,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
@@ -3033,10 +3102,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B125" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>4</v>
@@ -3044,10 +3113,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="B126" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>4</v>
@@ -3055,10 +3124,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>4</v>
@@ -3066,10 +3135,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>382</v>
       </c>
       <c r="B128" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>4</v>
@@ -3077,10 +3146,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>4</v>
@@ -3088,10 +3157,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
@@ -3099,10 +3168,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>4</v>
@@ -3110,10 +3179,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>4</v>
@@ -3121,10 +3190,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B133" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
@@ -3132,10 +3201,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>398</v>
+        <v>274</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>4</v>
@@ -3143,10 +3212,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="B135" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>4</v>
@@ -3154,10 +3223,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>387</v>
+        <v>275</v>
       </c>
       <c r="B136" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
@@ -3165,10 +3234,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
@@ -3176,10 +3245,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="B138" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
@@ -3187,10 +3256,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>388</v>
+        <v>276</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
@@ -3198,10 +3267,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>385</v>
       </c>
       <c r="B140" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
@@ -3209,10 +3278,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B141" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
@@ -3220,10 +3289,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="B142" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
@@ -3231,10 +3300,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B143" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
@@ -3242,10 +3311,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="B144" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
@@ -3253,10 +3322,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B145" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
@@ -3264,10 +3333,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B146" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
@@ -3275,10 +3344,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="B147" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
@@ -3286,10 +3355,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="B148" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
@@ -3297,10 +3366,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B149" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
@@ -3308,10 +3377,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="B150" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
@@ -3319,10 +3388,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="B151" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>4</v>
@@ -3330,10 +3399,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B152" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>4</v>
@@ -3341,10 +3410,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B153" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
@@ -3352,10 +3421,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="B154" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
@@ -3363,10 +3432,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="B155" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
@@ -3374,10 +3443,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
@@ -3385,10 +3454,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B157" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
@@ -3396,10 +3465,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B158" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
@@ -3407,10 +3476,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
@@ -3418,10 +3487,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B160" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
@@ -3429,10 +3498,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="B161" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
@@ -3440,10 +3509,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B162" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>4</v>
@@ -3451,10 +3520,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="B163" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
@@ -3462,10 +3531,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="B164" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>4</v>
@@ -3473,10 +3542,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="B165" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>4</v>
@@ -3484,10 +3553,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B166" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
@@ -3495,10 +3564,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="B167" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>4</v>
@@ -3506,10 +3575,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="B168" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>4</v>
@@ -3517,10 +3586,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>4</v>
@@ -3528,10 +3597,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
@@ -3539,10 +3608,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="B171" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>4</v>
@@ -3550,10 +3619,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>4</v>
@@ -3561,10 +3630,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B173" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>4</v>
@@ -3572,10 +3641,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B174" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
@@ -3583,10 +3652,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B175" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>4</v>
@@ -3594,10 +3663,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B176" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
@@ -3605,10 +3674,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B177" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
@@ -3616,10 +3685,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="B178" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
@@ -3627,10 +3696,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B179" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>4</v>
@@ -3638,10 +3707,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B180" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
@@ -3649,7 +3718,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B181" t="s">
         <v>103</v>
@@ -3660,10 +3729,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="B182" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
@@ -3671,10 +3740,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B183" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>4</v>
@@ -3682,10 +3751,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B184" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
@@ -3693,10 +3762,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
@@ -3704,10 +3773,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B186" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
@@ -3715,10 +3784,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B187" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>4</v>
@@ -3726,10 +3795,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="B188" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
@@ -3737,10 +3806,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="B189" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>4</v>
@@ -3748,10 +3817,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B190" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>4</v>
@@ -3759,10 +3828,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>4</v>
@@ -3770,10 +3839,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="B192" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>4</v>
@@ -3781,10 +3850,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="B193" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>4</v>
@@ -3792,10 +3861,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B194" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>4</v>
@@ -3803,10 +3872,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="B195" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>4</v>
@@ -3814,10 +3883,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="B196" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>4</v>
@@ -3825,10 +3894,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B197" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>4</v>
@@ -3836,10 +3905,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="B198" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>4</v>
@@ -3847,26 +3916,58 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="B199" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C200" s="2"/>
+      <c r="A200" t="s">
+        <v>355</v>
+      </c>
+      <c r="B200" t="s">
+        <v>52</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C201" s="2"/>
+      <c r="A201" t="s">
+        <v>356</v>
+      </c>
+      <c r="B201" t="s">
+        <v>86</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C202" s="2"/>
+      <c r="A202" t="s">
+        <v>357</v>
+      </c>
+      <c r="B202" t="s">
+        <v>75</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C203" s="2"/>
+      <c r="A203" t="s">
+        <v>318</v>
+      </c>
+      <c r="B203" t="s">
+        <v>185</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C204" s="2"/>
@@ -5051,16 +5152,16 @@
       <c r="C597" s="2"/>
     </row>
     <row r="598" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C598" s="3"/>
+      <c r="C598" s="2"/>
     </row>
     <row r="599" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C599" s="3"/>
+      <c r="C599" s="2"/>
     </row>
     <row r="600" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C600" s="3"/>
+      <c r="C600" s="2"/>
     </row>
     <row r="601" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C601" s="3"/>
+      <c r="C601" s="2"/>
     </row>
     <row r="602" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C602" s="3"/>
@@ -6149,16 +6250,16 @@
       <c r="C963" s="3"/>
     </row>
     <row r="964" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C964" s="2"/>
+      <c r="C964" s="3"/>
     </row>
     <row r="965" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C965" s="2"/>
+      <c r="C965" s="3"/>
     </row>
     <row r="966" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C966" s="2"/>
+      <c r="C966" s="3"/>
     </row>
     <row r="967" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C967" s="2"/>
+      <c r="C967" s="3"/>
     </row>
     <row r="968" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C968" s="2"/>
@@ -6981,6 +7082,18 @@
     </row>
     <row r="1241" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1241" s="2"/>
+    </row>
+    <row r="1242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1242" s="2"/>
+    </row>
+    <row r="1243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1243" s="2"/>
+    </row>
+    <row r="1244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1244" s="2"/>
+    </row>
+    <row r="1245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1245" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
